--- a/hieu.xlsx
+++ b/hieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F25BA0D-3439-4C33-BBCB-47607D5B14A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1808E14-059F-4EC7-92A0-4D77012A7AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="62775" yWindow="3825" windowWidth="17280" windowHeight="8910" xr2:uid="{8F19E4D0-D2B5-46D2-A9D6-F6A23E1D1DD1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>tên</t>
   </si>
@@ -60,59 +60,19 @@
   </si>
   <si>
     <t>SX4M3T3MLQ</t>
-  </si>
-  <si>
-    <t>Nguyễn Hồng Quang</t>
-  </si>
-  <si>
-    <t>hongbachthao_ngo28@gmail.com</t>
-  </si>
-  <si>
-    <t>B5513877TC</t>
-  </si>
-  <si>
-    <t>Vũ Hữu Thắng</t>
-  </si>
-  <si>
-    <t>dacthanh.phan16@gmail.com</t>
-  </si>
-  <si>
-    <t>848UQMDO70</t>
-  </si>
-  <si>
-    <t>Nguyễn Hữu Nghị</t>
-  </si>
-  <si>
-    <t>tuylinh63@gmail.com</t>
-  </si>
-  <si>
-    <t>DG9B1Y2C6X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF212529"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,12 +95,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D575737-C251-4642-9A23-6EF01EDEBAF6}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -486,71 +442,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2">
         <v>1111</v>
       </c>
-      <c r="D2" s="2">
-        <v>84524070962</v>
+      <c r="D2">
+        <v>84712220216</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>1111</v>
-      </c>
-      <c r="D3">
-        <v>84381737871</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>1111</v>
-      </c>
-      <c r="D4">
-        <v>84971801756</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>1111</v>
-      </c>
-      <c r="D5">
-        <v>84712220216</v>
-      </c>
-      <c r="E5" t="s">
         <v>7</v>
       </c>
     </row>

--- a/hieu.xlsx
+++ b/hieu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1808E14-059F-4EC7-92A0-4D77012A7AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E94599-8866-4415-8B6F-8D9D1C906AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62775" yWindow="3825" windowWidth="17280" windowHeight="8910" xr2:uid="{8F19E4D0-D2B5-46D2-A9D6-F6A23E1D1DD1}"/>
+    <workbookView xWindow="61290" yWindow="7485" windowWidth="17280" windowHeight="8910" xr2:uid="{8F19E4D0-D2B5-46D2-A9D6-F6A23E1D1DD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>tên</t>
   </si>
@@ -56,23 +56,50 @@
     <t>Lê Thanh Duẩn</t>
   </si>
   <si>
-    <t>anhthi.tang59@gmail.com</t>
-  </si>
-  <si>
     <t>SX4M3T3MLQ</t>
+  </si>
+  <si>
+    <t>thuylien96@gmail.com</t>
+  </si>
+  <si>
+    <t>kientrung4@hotmail.com</t>
+  </si>
+  <si>
+    <t>IQO0715YS1</t>
+  </si>
+  <si>
+    <t>An Duowing Vương</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF212529"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,7 +110,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -91,17 +118,355 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -411,13 +776,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D575737-C251-4642-9A23-6EF01EDEBAF6}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.68359375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.89453125" bestFit="1" customWidth="1"/>
@@ -425,7 +790,7 @@
     <col min="5" max="5" width="12.89453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,12 +807,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1111</v>
@@ -456,10 +821,66 @@
         <v>84712220216</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D3" s="4">
+        <v>84901524144</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="duplicateValues" dxfId="30" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:C3">
+    <cfRule type="duplicateValues" dxfId="29" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="duplicateValues" dxfId="19" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>